--- a/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_3/unwrapped_measurements/E2003EA4E989190A6181A2D5_processed2D.xlsx
+++ b/Experiments/Measurements/Two Banners Side by Side/S path/Antenna_3/unwrapped_measurements/E2003EA4E989190A6181A2D5_processed2D.xlsx
@@ -535,7 +535,7 @@
         <v>0.02707888611608815</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.119493385730941e-05</v>
+        <v>-1.119493385730745e-05</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>1.077862525192338</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01609662246158039</v>
+        <v>-0.01609662246158032</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>1.535925426155907</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04622241967604824</v>
+        <v>-0.04622241967604812</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>4.61421530717959</v>
       </c>
       <c r="H6" t="n">
-        <v>2.947295404408308</v>
+        <v>2.947295404408307</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08939173026834414</v>
+        <v>-0.08939173026834393</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
         <v>3.644938689979073</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1129702876748398</v>
+        <v>-0.1129702876748396</v>
       </c>
     </row>
     <row r="8">
@@ -677,10 +677,10 @@
         <v>4.73079530717959</v>
       </c>
       <c r="H8" t="n">
-        <v>4.573477349306004</v>
+        <v>4.573477349306003</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1470992432963381</v>
+        <v>-0.1470992432963378</v>
       </c>
     </row>
     <row r="9">
@@ -709,7 +709,7 @@
         <v>5.418406448383167</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1889971587065142</v>
+        <v>-0.1889971587065137</v>
       </c>
     </row>
     <row r="10">
@@ -738,7 +738,7 @@
         <v>6.46473275458051</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.2461427284006438</v>
+        <v>-0.2461427284006433</v>
       </c>
     </row>
     <row r="11">
@@ -764,10 +764,10 @@
         <v>4.79215530717959</v>
       </c>
       <c r="H11" t="n">
-        <v>7.134842477231152</v>
+        <v>7.134842477231151</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.292927666394431</v>
+        <v>-0.2929276663944304</v>
       </c>
     </row>
     <row r="12">
@@ -793,10 +793,10 @@
         <v>4.88419530717959</v>
       </c>
       <c r="H12" t="n">
-        <v>7.845049840933443</v>
+        <v>7.845049840933442</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3385589724516396</v>
+        <v>-0.338558972451639</v>
       </c>
     </row>
     <row r="13">
@@ -822,10 +822,10 @@
         <v>4.83510530717959</v>
       </c>
       <c r="H13" t="n">
-        <v>8.838224196952046</v>
+        <v>8.838224196952044</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3297342835813802</v>
+        <v>-0.3297342835813795</v>
       </c>
     </row>
     <row r="14">
@@ -854,7 +854,7 @@
         <v>10.58194653739061</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3644337758140193</v>
+        <v>-0.3644337758140184</v>
       </c>
     </row>
     <row r="15">
@@ -883,7 +883,7 @@
         <v>11.19032005490469</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.4232814679107683</v>
+        <v>-0.4232814679107674</v>
       </c>
     </row>
     <row r="16">
@@ -912,7 +912,7 @@
         <v>11.88200212809557</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4983726956257572</v>
+        <v>-0.4983726956257563</v>
       </c>
     </row>
     <row r="17">
@@ -941,7 +941,7 @@
         <v>12.64150168126897</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5837248925884523</v>
+        <v>-0.5837248925884514</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +970,7 @@
         <v>13.71221234626124</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7165970657591604</v>
+        <v>-0.7165970657591593</v>
       </c>
     </row>
     <row r="19">
@@ -996,10 +996,10 @@
         <v>5.09281530717959</v>
       </c>
       <c r="H19" t="n">
-        <v>14.41010728795914</v>
+        <v>14.41010728795913</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.8083163896746913</v>
+        <v>-0.8083163896746902</v>
       </c>
     </row>
     <row r="20">
@@ -1028,7 +1028,7 @@
         <v>15.17584372261206</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.9148784661062693</v>
+        <v>-0.9148784661062681</v>
       </c>
     </row>
     <row r="21">
@@ -1057,7 +1057,7 @@
         <v>15.97493771321605</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.9715160003745378</v>
+        <v>-0.9715160003745364</v>
       </c>
     </row>
     <row r="22">
@@ -1086,7 +1086,7 @@
         <v>16.58846158561968</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.964426502623791</v>
+        <v>-0.9644265026237898</v>
       </c>
     </row>
     <row r="23">
@@ -1115,7 +1115,7 @@
         <v>17.66873499601177</v>
       </c>
       <c r="I23" t="n">
-        <v>-1.088293410138009</v>
+        <v>-1.088293410138008</v>
       </c>
     </row>
     <row r="24">
@@ -1144,7 +1144,7 @@
         <v>18.21266040250939</v>
       </c>
       <c r="I24" t="n">
-        <v>-1.178849935846562</v>
+        <v>-1.178849935846561</v>
       </c>
     </row>
     <row r="25">
@@ -1173,7 +1173,7 @@
         <v>19.01496311233247</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.320075200455057</v>
+        <v>-1.320075200455055</v>
       </c>
     </row>
     <row r="26">
@@ -1199,10 +1199,10 @@
         <v>4.47922530717959</v>
       </c>
       <c r="H26" t="n">
-        <v>19.61500077386271</v>
+        <v>19.6150007738627</v>
       </c>
       <c r="I26" t="n">
-        <v>-1.426899692497228</v>
+        <v>-1.426899692497227</v>
       </c>
     </row>
     <row r="27">
@@ -1228,10 +1228,10 @@
         <v>4.41786530717959</v>
       </c>
       <c r="H27" t="n">
-        <v>20.32395945605402</v>
+        <v>20.32395945605401</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.56316209643492</v>
+        <v>-1.563162096434918</v>
       </c>
     </row>
     <row r="28">
@@ -1260,7 +1260,7 @@
         <v>20.91090919889156</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.675974288398567</v>
+        <v>-1.675974288398566</v>
       </c>
     </row>
     <row r="29">
@@ -1289,7 +1289,7 @@
         <v>21.62946823922814</v>
       </c>
       <c r="I29" t="n">
-        <v>-1.82035516935278</v>
+        <v>-1.820355169352778</v>
       </c>
     </row>
     <row r="30">
@@ -1318,7 +1318,7 @@
         <v>22.0880517099609</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.912723702007989</v>
+        <v>-1.912723702007988</v>
       </c>
     </row>
     <row r="31">
@@ -1347,7 +1347,7 @@
         <v>22.43008257673943</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.960759799529691</v>
+        <v>-1.960759799529689</v>
       </c>
     </row>
     <row r="32">
@@ -1376,7 +1376,7 @@
         <v>23.38488854472865</v>
       </c>
       <c r="I32" t="n">
-        <v>-2.08738392615025</v>
+        <v>-2.087383926150248</v>
       </c>
     </row>
     <row r="33">
@@ -1405,7 +1405,7 @@
         <v>23.95105866279186</v>
       </c>
       <c r="I33" t="n">
-        <v>-2.185763883518837</v>
+        <v>-2.185763883518835</v>
       </c>
     </row>
     <row r="34">
@@ -1434,7 +1434,7 @@
         <v>24.553777664261</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.300444495320668</v>
+        <v>-2.300444495320666</v>
       </c>
     </row>
     <row r="35">
@@ -1463,7 +1463,7 @@
         <v>25.13348831674354</v>
       </c>
       <c r="I35" t="n">
-        <v>-2.409740455318607</v>
+        <v>-2.409740455318605</v>
       </c>
     </row>
     <row r="36">
@@ -1489,10 +1489,10 @@
         <v>4.42400530717959</v>
       </c>
       <c r="H36" t="n">
-        <v>25.61331566487588</v>
+        <v>25.61331566487587</v>
       </c>
       <c r="I36" t="n">
-        <v>-2.499994434068929</v>
+        <v>-2.499994434068927</v>
       </c>
     </row>
     <row r="37">
@@ -1521,7 +1521,7 @@
         <v>26.11915309943366</v>
       </c>
       <c r="I37" t="n">
-        <v>-2.584866411959837</v>
+        <v>-2.584866411959835</v>
       </c>
     </row>
     <row r="38">
@@ -1550,7 +1550,7 @@
         <v>26.66624516895426</v>
       </c>
       <c r="I38" t="n">
-        <v>-2.676625660434537</v>
+        <v>-2.676625660434535</v>
       </c>
     </row>
     <row r="39">
@@ -1579,7 +1579,7 @@
         <v>27.24447819786515</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.763241014150564</v>
+        <v>-2.763241014150562</v>
       </c>
     </row>
     <row r="40">
@@ -1608,7 +1608,7 @@
         <v>27.76195020480778</v>
       </c>
       <c r="I40" t="n">
-        <v>-2.839475283313502</v>
+        <v>-2.8394752833135</v>
       </c>
     </row>
     <row r="41">
@@ -1637,7 +1637,7 @@
         <v>28.42630309336384</v>
       </c>
       <c r="I41" t="n">
-        <v>-2.903454769676759</v>
+        <v>-2.903454769676757</v>
       </c>
     </row>
     <row r="42">
@@ -1666,7 +1666,7 @@
         <v>29.14000039773619</v>
       </c>
       <c r="I42" t="n">
-        <v>-2.983554998004802</v>
+        <v>-2.9835549980048</v>
       </c>
     </row>
     <row r="43">
@@ -1692,10 +1692,10 @@
         <v>4.46081530717959</v>
       </c>
       <c r="H43" t="n">
-        <v>29.60310353993332</v>
+        <v>29.60310353993331</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.046896526778232</v>
+        <v>-3.046896526778229</v>
       </c>
     </row>
     <row r="44">
@@ -1724,7 +1724,7 @@
         <v>30.303666177597</v>
       </c>
       <c r="I44" t="n">
-        <v>-3.139927887636754</v>
+        <v>-3.139927887636752</v>
       </c>
     </row>
     <row r="45">
@@ -1750,10 +1750,10 @@
         <v>4.57126530717959</v>
       </c>
       <c r="H45" t="n">
-        <v>30.81780428746084</v>
+        <v>30.81780428746083</v>
       </c>
       <c r="I45" t="n">
-        <v>-3.205657303017733</v>
+        <v>-3.20565730301773</v>
       </c>
     </row>
     <row r="46">
@@ -1782,7 +1782,7 @@
         <v>31.35753362528985</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.274002875625455</v>
+        <v>-3.274002875625452</v>
       </c>
     </row>
     <row r="47">
@@ -1811,7 +1811,7 @@
         <v>31.96870470516323</v>
       </c>
       <c r="I47" t="n">
-        <v>-3.349979717410771</v>
+        <v>-3.349979717410768</v>
       </c>
     </row>
     <row r="48">
@@ -1837,10 +1837,10 @@
         <v>4.75534530717959</v>
       </c>
       <c r="H48" t="n">
-        <v>32.42648719433879</v>
+        <v>32.42648719433878</v>
       </c>
       <c r="I48" t="n">
-        <v>-3.403323065508258</v>
+        <v>-3.403323065508255</v>
       </c>
     </row>
     <row r="49">
@@ -1869,7 +1869,7 @@
         <v>32.95484371826463</v>
       </c>
       <c r="I49" t="n">
-        <v>-3.451499513729742</v>
+        <v>-3.451499513729739</v>
       </c>
     </row>
     <row r="50">
@@ -1895,10 +1895,10 @@
         <v>5.16031530717959</v>
       </c>
       <c r="H50" t="n">
-        <v>33.82652794456546</v>
+        <v>33.82652794456545</v>
       </c>
       <c r="I50" t="n">
-        <v>-3.533865401206642</v>
+        <v>-3.53386540120664</v>
       </c>
     </row>
     <row r="51">
@@ -1924,10 +1924,10 @@
         <v>5.28302530717959</v>
       </c>
       <c r="H51" t="n">
-        <v>34.31242780207266</v>
+        <v>34.31242780207265</v>
       </c>
       <c r="I51" t="n">
-        <v>-3.583409859131948</v>
+        <v>-3.583409859131946</v>
       </c>
     </row>
     <row r="52">
@@ -1953,10 +1953,10 @@
         <v>5.55301030717959</v>
       </c>
       <c r="H52" t="n">
-        <v>34.84436760802649</v>
+        <v>34.84436760802648</v>
       </c>
       <c r="I52" t="n">
-        <v>-3.627967798416447</v>
+        <v>-3.627967798416444</v>
       </c>
     </row>
     <row r="53">
@@ -1985,7 +1985,7 @@
         <v>38.66942675828705</v>
       </c>
       <c r="I53" t="n">
-        <v>-3.855321831569509</v>
+        <v>-3.855321831569506</v>
       </c>
     </row>
     <row r="54">
@@ -2014,7 +2014,7 @@
         <v>39.43580603858436</v>
       </c>
       <c r="I54" t="n">
-        <v>-3.880078221765883</v>
+        <v>-3.88007822176588</v>
       </c>
     </row>
     <row r="55">
@@ -2043,7 +2043,7 @@
         <v>40.16375516238046</v>
       </c>
       <c r="I55" t="n">
-        <v>-3.968638723185896</v>
+        <v>-3.968638723185892</v>
       </c>
     </row>
     <row r="56">
@@ -2072,7 +2072,7 @@
         <v>40.72233399349258</v>
       </c>
       <c r="I56" t="n">
-        <v>-4.077308182212875</v>
+        <v>-4.077308182212872</v>
       </c>
     </row>
     <row r="57">
@@ -2098,10 +2098,10 @@
         <v>8.02579061435917</v>
       </c>
       <c r="H57" t="n">
-        <v>41.51198647876348</v>
+        <v>41.51198647876347</v>
       </c>
       <c r="I57" t="n">
-        <v>-4.180950511470066</v>
+        <v>-4.180950511470063</v>
       </c>
     </row>
     <row r="58">
@@ -2127,10 +2127,10 @@
         <v>8.19759061435917</v>
       </c>
       <c r="H58" t="n">
-        <v>42.07435075645205</v>
+        <v>42.07435075645204</v>
       </c>
       <c r="I58" t="n">
-        <v>-4.185279855493489</v>
+        <v>-4.185279855493485</v>
       </c>
     </row>
     <row r="59">
@@ -2159,7 +2159,7 @@
         <v>42.65140098679593</v>
       </c>
       <c r="I59" t="n">
-        <v>-4.188427348533575</v>
+        <v>-4.188427348533572</v>
       </c>
     </row>
     <row r="60">
@@ -2188,7 +2188,7 @@
         <v>43.4169322521139</v>
       </c>
       <c r="I60" t="n">
-        <v>-4.176988109149305</v>
+        <v>-4.176988109149302</v>
       </c>
     </row>
     <row r="61">
@@ -2214,10 +2214,10 @@
         <v>8.694600614359169</v>
       </c>
       <c r="H61" t="n">
-        <v>43.85651505113489</v>
+        <v>43.85651505113488</v>
       </c>
       <c r="I61" t="n">
-        <v>-4.170419477539889</v>
+        <v>-4.170419477539886</v>
       </c>
     </row>
     <row r="62">
@@ -2246,7 +2246,7 @@
         <v>44.62442462554392</v>
       </c>
       <c r="I62" t="n">
-        <v>-4.150452257117907</v>
+        <v>-4.150452257117903</v>
       </c>
     </row>
     <row r="63">
@@ -2275,7 +2275,7 @@
         <v>45.42678128287973</v>
       </c>
       <c r="I63" t="n">
-        <v>-4.127618707429411</v>
+        <v>-4.127618707429408</v>
       </c>
     </row>
     <row r="64">
@@ -2301,10 +2301,10 @@
         <v>9.087300614359171</v>
       </c>
       <c r="H64" t="n">
-        <v>45.95650014919786</v>
+        <v>45.95650014919785</v>
       </c>
       <c r="I64" t="n">
-        <v>-4.104927379651961</v>
+        <v>-4.104927379651958</v>
       </c>
     </row>
     <row r="65">
@@ -2333,7 +2333,7 @@
         <v>46.73092626266991</v>
       </c>
       <c r="I65" t="n">
-        <v>-4.071029198953832</v>
+        <v>-4.071029198953829</v>
       </c>
     </row>
     <row r="66">
@@ -2359,10 +2359,10 @@
         <v>9.26524061435917</v>
       </c>
       <c r="H66" t="n">
-        <v>47.03039684891433</v>
+        <v>47.03039684891432</v>
       </c>
       <c r="I66" t="n">
-        <v>-4.058713938713024</v>
+        <v>-4.05871393871302</v>
       </c>
     </row>
     <row r="67">
@@ -2391,7 +2391,7 @@
         <v>47.66859608406288</v>
       </c>
       <c r="I67" t="n">
-        <v>-4.034109893275359</v>
+        <v>-4.034109893275355</v>
       </c>
     </row>
     <row r="68">
@@ -2420,7 +2420,7 @@
         <v>48.42533453512759</v>
       </c>
       <c r="I68" t="n">
-        <v>-3.998103390613905</v>
+        <v>-3.998103390613901</v>
       </c>
     </row>
     <row r="69">
@@ -2446,10 +2446,10 @@
         <v>9.48000061435917</v>
       </c>
       <c r="H69" t="n">
-        <v>48.90175808966939</v>
+        <v>48.90175808966938</v>
       </c>
       <c r="I69" t="n">
-        <v>-3.968872956763882</v>
+        <v>-3.968872956763878</v>
       </c>
     </row>
     <row r="70">
@@ -2475,10 +2475,10 @@
         <v>9.55977061435917</v>
       </c>
       <c r="H70" t="n">
-        <v>49.57032056702678</v>
+        <v>49.57032056702677</v>
       </c>
       <c r="I70" t="n">
-        <v>-3.925064369860805</v>
+        <v>-3.925064369860801</v>
       </c>
     </row>
     <row r="71">
@@ -2504,10 +2504,10 @@
         <v>9.55363061435917</v>
       </c>
       <c r="H71" t="n">
-        <v>49.63538359339052</v>
+        <v>49.63538359339051</v>
       </c>
       <c r="I71" t="n">
-        <v>-3.920199711096529</v>
+        <v>-3.920199711096525</v>
       </c>
     </row>
     <row r="72">
@@ -2536,7 +2536,7 @@
         <v>51.70235194210778</v>
       </c>
       <c r="I72" t="n">
-        <v>-3.744301126145322</v>
+        <v>-3.744301126145318</v>
       </c>
     </row>
     <row r="73">
@@ -2562,10 +2562,10 @@
         <v>9.81748061435917</v>
       </c>
       <c r="H73" t="n">
-        <v>52.22561953058878</v>
+        <v>52.22561953058877</v>
       </c>
       <c r="I73" t="n">
-        <v>-3.692686791499874</v>
+        <v>-3.69268679149987</v>
       </c>
     </row>
     <row r="74">
@@ -2594,7 +2594,7 @@
         <v>52.74780066226018</v>
       </c>
       <c r="I74" t="n">
-        <v>-3.636255663792259</v>
+        <v>-3.636255663792255</v>
       </c>
     </row>
     <row r="75">
@@ -2620,10 +2620,10 @@
         <v>9.97701061435917</v>
       </c>
       <c r="H75" t="n">
-        <v>53.29026851401423</v>
+        <v>53.29026851401422</v>
       </c>
       <c r="I75" t="n">
-        <v>-3.570589430054145</v>
+        <v>-3.570589430054141</v>
       </c>
     </row>
     <row r="76">
@@ -2649,10 +2649,10 @@
         <v>9.98315061435917</v>
       </c>
       <c r="H76" t="n">
-        <v>53.36591735823793</v>
+        <v>53.36591735823792</v>
       </c>
       <c r="I76" t="n">
-        <v>-3.439509186296891</v>
+        <v>-3.439509186296887</v>
       </c>
     </row>
     <row r="77">
@@ -2681,7 +2681,7 @@
         <v>53.43934854717558</v>
       </c>
       <c r="I77" t="n">
-        <v>-3.312271576198847</v>
+        <v>-3.312271576198843</v>
       </c>
     </row>
     <row r="78">
@@ -2707,10 +2707,10 @@
         <v>10.1549506143592</v>
       </c>
       <c r="H78" t="n">
-        <v>53.78887190534866</v>
+        <v>53.78887190534865</v>
       </c>
       <c r="I78" t="n">
-        <v>-3.248316009769122</v>
+        <v>-3.248316009769118</v>
       </c>
     </row>
     <row r="79">
@@ -2739,7 +2739,7 @@
         <v>54.42529091918984</v>
       </c>
       <c r="I79" t="n">
-        <v>-3.163926731933036</v>
+        <v>-3.163926731933032</v>
       </c>
     </row>
     <row r="80">
@@ -2765,10 +2765,10 @@
         <v>10.3390306143592</v>
       </c>
       <c r="H80" t="n">
-        <v>55.23988784002568</v>
+        <v>55.23988784002567</v>
       </c>
       <c r="I80" t="n">
-        <v>-3.050112298783642</v>
+        <v>-3.050112298783637</v>
       </c>
     </row>
     <row r="81">
@@ -2797,7 +2797,7 @@
         <v>55.74114869503595</v>
       </c>
       <c r="I81" t="n">
-        <v>-2.979131660941844</v>
+        <v>-2.979131660941839</v>
       </c>
     </row>
     <row r="82">
@@ -2823,10 +2823,10 @@
         <v>10.4494806143592</v>
       </c>
       <c r="H82" t="n">
-        <v>56.25508329871674</v>
+        <v>56.25508329871673</v>
       </c>
       <c r="I82" t="n">
-        <v>-2.899771082616738</v>
+        <v>-2.899771082616733</v>
       </c>
     </row>
     <row r="83">
@@ -2852,10 +2852,10 @@
         <v>10.4740206143592</v>
       </c>
       <c r="H83" t="n">
-        <v>56.9340490069275</v>
+        <v>56.93404900692749</v>
       </c>
       <c r="I83" t="n">
-        <v>-2.793716613595003</v>
+        <v>-2.793716613594999</v>
       </c>
     </row>
     <row r="84">
@@ -2884,7 +2884,7 @@
         <v>57.22820061157535</v>
       </c>
       <c r="I84" t="n">
-        <v>-2.745714069546669</v>
+        <v>-2.745714069546664</v>
       </c>
     </row>
     <row r="85">
@@ -2910,10 +2910,10 @@
         <v>10.4801606143592</v>
       </c>
       <c r="H85" t="n">
-        <v>57.77386155970389</v>
+        <v>57.77386155970388</v>
       </c>
       <c r="I85" t="n">
-        <v>-2.654720533312848</v>
+        <v>-2.654720533312844</v>
       </c>
     </row>
     <row r="86">
@@ -2942,7 +2942,7 @@
         <v>58.52678190948114</v>
       </c>
       <c r="I86" t="n">
-        <v>-2.53932468312441</v>
+        <v>-2.539324683124406</v>
       </c>
     </row>
     <row r="87">
@@ -2968,10 +2968,10 @@
         <v>10.6458306143592</v>
       </c>
       <c r="H87" t="n">
-        <v>59.07245694119685</v>
+        <v>59.07245694119684</v>
       </c>
       <c r="I87" t="n">
-        <v>-2.464515716320882</v>
+        <v>-2.464515716320878</v>
       </c>
     </row>
     <row r="88">
@@ -2997,10 +2997,10 @@
         <v>10.5906006143592</v>
       </c>
       <c r="H88" t="n">
-        <v>59.86947584924106</v>
+        <v>59.86947584924105</v>
       </c>
       <c r="I88" t="n">
-        <v>-2.337640799634639</v>
+        <v>-2.337640799634635</v>
       </c>
     </row>
     <row r="89">
@@ -3029,7 +3029,7 @@
         <v>60.82677049196481</v>
       </c>
       <c r="I89" t="n">
-        <v>-2.146455204646458</v>
+        <v>-2.146455204646454</v>
       </c>
     </row>
     <row r="90">
@@ -3055,10 +3055,10 @@
         <v>10.8605806143592</v>
       </c>
       <c r="H90" t="n">
-        <v>61.12429840954935</v>
+        <v>61.12429840954934</v>
       </c>
       <c r="I90" t="n">
-        <v>-2.085918704400433</v>
+        <v>-2.085918704400428</v>
       </c>
     </row>
     <row r="91">
@@ -3087,7 +3087,7 @@
         <v>61.83955403612858</v>
       </c>
       <c r="I91" t="n">
-        <v>-1.937719426409386</v>
+        <v>-1.937719426409381</v>
       </c>
     </row>
     <row r="92">
@@ -3116,7 +3116,7 @@
         <v>62.54013873836702</v>
       </c>
       <c r="I92" t="n">
-        <v>-1.778449323700131</v>
+        <v>-1.778449323700126</v>
       </c>
     </row>
     <row r="93">
@@ -3142,10 +3142,10 @@
         <v>10.9710306143592</v>
       </c>
       <c r="H93" t="n">
-        <v>62.68382171217684</v>
+        <v>62.68382171217683</v>
       </c>
       <c r="I93" t="n">
-        <v>-1.745784605324758</v>
+        <v>-1.745784605324753</v>
       </c>
     </row>
     <row r="94">
@@ -3174,7 +3174,7 @@
         <v>63.51083822365786</v>
       </c>
       <c r="I94" t="n">
-        <v>-1.551420502705312</v>
+        <v>-1.551420502705307</v>
       </c>
     </row>
     <row r="95">
@@ -3200,10 +3200,10 @@
         <v>11.1857906143592</v>
       </c>
       <c r="H95" t="n">
-        <v>64.35095937470948</v>
+        <v>64.35095937470946</v>
       </c>
       <c r="I95" t="n">
-        <v>-1.352472001313795</v>
+        <v>-1.352472001313791</v>
       </c>
     </row>
     <row r="96">
@@ -3232,7 +3232,7 @@
         <v>65.18905096528152</v>
       </c>
       <c r="I96" t="n">
-        <v>-1.152901024764663</v>
+        <v>-1.152901024764658</v>
       </c>
     </row>
     <row r="97">
@@ -3258,10 +3258,10 @@
         <v>11.3821406143592</v>
       </c>
       <c r="H97" t="n">
-        <v>65.92265907144117</v>
+        <v>65.92265907144116</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.9699262873559397</v>
+        <v>-0.9699262873559348</v>
       </c>
     </row>
     <row r="98">
@@ -3287,10 +3287,10 @@
         <v>11.4803106143592</v>
       </c>
       <c r="H98" t="n">
-        <v>66.77186443407197</v>
+        <v>66.77186443407196</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.7486188477659648</v>
+        <v>-0.7486188477659599</v>
       </c>
     </row>
     <row r="99">
@@ -3319,7 +3319,7 @@
         <v>67.28021587583456</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.6132220134819398</v>
+        <v>-0.6132220134819349</v>
       </c>
     </row>
     <row r="100">
@@ -3345,10 +3345,10 @@
         <v>11.5968946143592</v>
       </c>
       <c r="H100" t="n">
-        <v>67.67495235442915</v>
+        <v>67.67495235442914</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.5029097865885515</v>
+        <v>-0.5029097865885466</v>
       </c>
     </row>
     <row r="101">
@@ -3377,7 +3377,7 @@
         <v>68.28084611616075</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.3317042716447292</v>
+        <v>-0.3317042716447242</v>
       </c>
     </row>
     <row r="102">
@@ -3406,7 +3406,7 @@
         <v>68.89988127088773</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.146865542980873</v>
+        <v>-0.146865542980868</v>
       </c>
     </row>
     <row r="103">
